--- a/data/VGPs_NAM/9.xlsx
+++ b/data/VGPs_NAM/9.xlsx
@@ -125,10 +125,10 @@
     <t>Ruiz-Martínez et al. (2010)</t>
   </si>
   <si>
-    <t>Ferrari et al., 1999 /GSA database</t>
+    <t>Raffi et al. 2020</t>
   </si>
   <si>
-    <t>age range determined from youngest and oldest site ages</t>
+    <t>VGPs collectively classified as 'Pliocene' (and uniform age assigned accordingly, but some isotopic ages extend beyond the temporal bounds of Pliocene)</t>
   </si>
   <si>
     <t>Site level data</t>
@@ -459,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -489,6 +489,9 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -512,9 +515,6 @@
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -558,9 +558,6 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="top"/>
@@ -951,16 +948,13 @@
       <c r="N3" s="10">
         <v>3.8</v>
       </c>
-      <c r="O3" s="9">
-        <f>(Q3+R3)/2</f>
-        <v>3.5405</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="11">
-        <v>1.931</v>
-      </c>
-      <c r="R3" s="11">
-        <v>5.15</v>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="12">
+        <v>2.58</v>
+      </c>
+      <c r="R3" s="12">
+        <v>5.33</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>27</v>
@@ -971,8 +965,8 @@
       <c r="U3" s="9">
         <v>5.0</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12" t="s">
+      <c r="V3" s="13"/>
+      <c r="W3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="X3" s="9" t="s">
@@ -981,11 +975,11 @@
       <c r="Y3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="2"/>
@@ -1023,7 +1017,7 @@
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="2"/>
@@ -1137,53 +1131,53 @@
       <c r="AD6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="18">
         <v>21.35</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="19">
         <v>-105.24</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="20">
         <v>8.0</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="18">
         <v>351.1</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="18">
         <v>31.3</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="18">
         <v>59.8</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="18">
         <v>6.4</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="18">
         <v>80.5</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="18">
         <v>138.4</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="15" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="20"/>
+      <c r="U7" s="11"/>
       <c r="V7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W7" s="16" t="s">
+      <c r="W7" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X7" s="2"/>
@@ -1195,53 +1189,53 @@
       <c r="AD7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="18">
         <v>21.58</v>
       </c>
       <c r="C8" s="22">
         <v>-105.19</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="20">
         <v>10.0</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="18">
         <v>166.5</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="19">
         <v>-41.1</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="18">
         <v>492.0</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="18">
         <v>2.2</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="18">
         <v>77.4</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="18">
         <v>176.4</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="15" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="20"/>
+      <c r="U8" s="11"/>
       <c r="V8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W8" s="16" t="s">
+      <c r="W8" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X8" s="2"/>
@@ -1253,59 +1247,59 @@
       <c r="AD8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="18">
         <v>21.4</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="19">
         <v>-105.18</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="20">
         <v>7.0</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="18">
         <v>8.4</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="18">
         <v>49.1</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="18">
         <v>77.6</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="18">
         <v>6.9</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="18">
         <v>78.6</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="18">
         <v>294.4</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="18">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="19">
         <v>3.36</v>
       </c>
       <c r="P9" s="23">
         <v>0.17</v>
       </c>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="15" t="s">
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="T9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="20"/>
+      <c r="U9" s="11"/>
       <c r="V9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="16" t="s">
+      <c r="W9" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X9" s="24" t="s">
@@ -1319,53 +1313,53 @@
       <c r="AD9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="18">
         <v>21.63</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="19">
         <v>-105.15</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="20">
         <v>9.0</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="18">
         <v>180.7</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="19">
         <v>-35.1</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="18">
         <v>83.7</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="18">
         <v>5.1</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="18">
         <v>87.6</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="18">
         <v>58.6</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="15" t="s">
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U10" s="20"/>
+      <c r="U10" s="11"/>
       <c r="V10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X10" s="2"/>
@@ -1377,53 +1371,53 @@
       <c r="AD10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="18">
         <v>21.05</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="19">
         <v>-104.4</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="20">
         <v>10.0</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="18">
         <v>187.5</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="19">
         <v>-10.1</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="18">
         <v>187.6</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="18">
         <v>3.5</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="18">
         <v>72.5</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="18">
         <v>50.0</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="15" t="s">
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="20"/>
+      <c r="U11" s="11"/>
       <c r="V11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W11" s="16" t="s">
+      <c r="W11" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X11" s="2"/>
@@ -1435,53 +1429,53 @@
       <c r="AD11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="18">
         <v>21.04</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="19">
         <v>-104.32</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="20">
         <v>10.0</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="18">
         <v>200.6</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="19">
         <v>-19.8</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="18">
         <v>21.3</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="18">
         <v>9.6</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="18">
         <v>67.4</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="18">
         <v>11.2</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="15" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="20"/>
+      <c r="U12" s="11"/>
       <c r="V12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W12" s="16" t="s">
+      <c r="W12" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X12" s="2"/>
@@ -1493,53 +1487,53 @@
       <c r="AD12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="18">
         <v>21.04</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="19">
         <v>-104.27</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="20">
         <v>9.0</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="18">
         <v>186.5</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="19">
         <v>-41.6</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="18">
         <v>160.3</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="18">
         <v>4.1</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="18">
         <v>83.3</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="18">
         <v>318.8</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="15" t="s">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="20"/>
+      <c r="U13" s="11"/>
       <c r="V13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="16" t="s">
+      <c r="W13" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X13" s="2"/>
@@ -1551,53 +1545,53 @@
       <c r="AD13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="18">
         <v>20.62</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="19">
         <v>-103.22</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="20">
         <v>9.0</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="18">
         <v>9.0</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="18">
         <v>43.0</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="18">
         <v>88.3</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="18">
         <v>5.5</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="18">
         <v>80.6</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="18">
         <v>317.3</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="15" t="s">
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U14" s="20"/>
+      <c r="U14" s="11"/>
       <c r="V14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W14" s="16" t="s">
+      <c r="W14" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X14" s="2"/>
@@ -1609,59 +1603,59 @@
       <c r="AD14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="18">
         <v>20.33</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="19">
         <v>-103.18</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="20">
         <v>9.0</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="18">
         <v>199.5</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="19">
         <v>-66.3</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="18">
         <v>87.1</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="18">
         <v>5.0</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="18">
         <v>60.6</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="18">
         <v>269.6</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="18">
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="19">
         <v>4.33</v>
       </c>
       <c r="P15" s="23">
         <v>0.09</v>
       </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="15" t="s">
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T15" s="15" t="s">
+      <c r="T15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U15" s="20"/>
+      <c r="U15" s="11"/>
       <c r="V15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W15" s="16" t="s">
+      <c r="W15" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X15" s="24" t="s">
@@ -1675,59 +1669,59 @@
       <c r="AD15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="18">
         <v>20.32</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="19">
         <v>-102.94</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="20">
         <v>7.0</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="18">
         <v>160.8</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>-30.4</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="18">
         <v>80.4</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="18">
         <v>5.9</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="18">
         <v>71.4</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="18">
         <v>157.9</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="18">
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="19">
         <v>2.52</v>
       </c>
       <c r="P16" s="23">
         <v>0.37</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="15" t="s">
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="T16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U16" s="20"/>
+      <c r="U16" s="11"/>
       <c r="V16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W16" s="16" t="s">
+      <c r="W16" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X16" s="24" t="s">
@@ -1741,59 +1735,59 @@
       <c r="AD16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="18">
         <v>20.12</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="19">
         <v>-102.62</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="20">
         <v>10.0</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="18">
         <v>358.4</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="18">
         <v>58.9</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="18">
         <v>52.7</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="18">
         <v>6.1</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="18">
         <v>70.4</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="18">
         <v>253.7</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="18">
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="19">
         <v>3.0</v>
       </c>
       <c r="P17" s="23">
         <v>0.3</v>
       </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="15" t="s">
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="15" t="s">
+      <c r="T17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U17" s="20"/>
+      <c r="U17" s="11"/>
       <c r="V17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="16" t="s">
+      <c r="W17" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X17" s="24" t="s">
@@ -1807,59 +1801,59 @@
       <c r="AD17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="18">
         <v>19.99</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="19">
         <v>-102.47</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="20">
         <v>9.0</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="18">
         <v>1.2</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="18">
         <v>40.1</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="18">
         <v>112.5</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="18">
         <v>4.9</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="18">
         <v>86.9</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="18">
         <v>278.8</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="18">
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="19">
         <v>2.6</v>
       </c>
       <c r="P18" s="23">
         <v>0.1</v>
       </c>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="15" t="s">
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T18" s="15" t="s">
+      <c r="T18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U18" s="20"/>
+      <c r="U18" s="11"/>
       <c r="V18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W18" s="16" t="s">
+      <c r="W18" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X18" s="24" t="s">
@@ -1873,53 +1867,53 @@
       <c r="AD18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="18">
         <v>20.24</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="19">
         <v>-102.39</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="20">
         <v>11.0</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="18">
         <v>170.1</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>-23.6</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="18">
         <v>163.6</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="18">
         <v>3.3</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="18">
         <v>77.6</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="18">
         <v>129.3</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="15" t="s">
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U19" s="20"/>
+      <c r="U19" s="11"/>
       <c r="V19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W19" s="16" t="s">
+      <c r="W19" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X19" s="2"/>
@@ -1931,53 +1925,53 @@
       <c r="AD19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="18">
         <v>20.2</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="19">
         <v>-102.33</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="20">
         <v>9.0</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="18">
         <v>195.2</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>-43.2</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="18">
         <v>146.1</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="18">
         <v>4.3</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="18">
         <v>75.1</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="18">
         <v>325.4</v>
       </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="15" t="s">
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U20" s="20"/>
+      <c r="U20" s="11"/>
       <c r="V20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W20" s="16" t="s">
+      <c r="W20" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X20" s="2"/>
@@ -1989,53 +1983,53 @@
       <c r="AD20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="18">
         <v>20.07</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="19">
         <v>-101.97</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="20">
         <v>8.0</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="18">
         <v>203.2</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>-36.0</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="18">
         <v>184.0</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="18">
         <v>4.1</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="18">
         <v>68.2</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="18">
         <v>344.3</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="15" t="s">
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U21" s="20"/>
+      <c r="U21" s="11"/>
       <c r="V21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W21" s="16" t="s">
+      <c r="W21" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X21" s="2"/>
@@ -2047,65 +2041,65 @@
       <c r="AD21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="18">
         <v>19.97</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="19">
         <v>-101.73</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="20">
         <v>8.0</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="18">
         <v>19.8</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="18">
         <v>77.6</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="18">
         <v>102.0</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="18">
         <v>4.9</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="18">
         <v>42.0</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="18">
         <v>268.8</v>
       </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="18">
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="19">
         <v>2.16</v>
       </c>
       <c r="P22" s="23">
         <v>0.2</v>
       </c>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="15" t="s">
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T22" s="15" t="s">
+      <c r="T22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U22" s="20"/>
+      <c r="U22" s="11"/>
       <c r="V22" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W22" s="16" t="s">
+      <c r="W22" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X22" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="Y22" s="15" t="s">
+      <c r="Y22" s="16" t="s">
         <v>62</v>
       </c>
       <c r="Z22" s="2"/>
@@ -2115,59 +2109,59 @@
       <c r="AD22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="18">
         <v>19.88</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="19">
         <v>-101.42</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="20">
         <v>9.0</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="18">
         <v>187.5</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>-38.4</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="18">
         <v>448.9</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="18">
         <v>2.4</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="18">
         <v>82.8</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="18">
         <v>333.3</v>
       </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="18">
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="19">
         <v>2.9</v>
       </c>
       <c r="P23" s="23">
         <v>0.12</v>
       </c>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="15" t="s">
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T23" s="15" t="s">
+      <c r="T23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U23" s="20"/>
+      <c r="U23" s="11"/>
       <c r="V23" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W23" s="16" t="s">
+      <c r="W23" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X23" s="24" t="s">
@@ -2181,59 +2175,59 @@
       <c r="AD23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="18">
         <v>20.1</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="19">
         <v>-101.2</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="20">
         <v>9.0</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="18">
         <v>198.3</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>-50.9</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="18">
         <v>329.7</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="18">
         <v>2.8</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="18">
         <v>70.0</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="18">
         <v>310.1</v>
       </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="18">
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="19">
         <v>2.8</v>
       </c>
       <c r="P24" s="23">
         <v>0.2</v>
       </c>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="15" t="s">
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T24" s="15" t="s">
+      <c r="T24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U24" s="20"/>
+      <c r="U24" s="11"/>
       <c r="V24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W24" s="16" t="s">
+      <c r="W24" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X24" s="24" t="s">
@@ -2247,59 +2241,59 @@
       <c r="AD24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="18">
         <v>20.37</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="19">
         <v>-100.79</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="20">
         <v>11.0</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="18">
         <v>0.9</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="18">
         <v>36.3</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="18">
         <v>86.2</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="18">
         <v>4.9</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="18">
         <v>89.1</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="18">
         <v>2.5</v>
       </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="18">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="19">
         <v>3.8</v>
       </c>
       <c r="P25" s="23">
         <v>0.4</v>
       </c>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="15" t="s">
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T25" s="15" t="s">
+      <c r="T25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U25" s="20"/>
+      <c r="U25" s="11"/>
       <c r="V25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W25" s="16" t="s">
+      <c r="W25" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X25" s="24" t="s">
@@ -2313,59 +2307,59 @@
       <c r="AD25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="18">
         <v>20.0</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="19">
         <v>-100.6</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="20">
         <v>9.0</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="18">
         <v>326.8</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="18">
         <v>50.5</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="18">
         <v>117.8</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="18">
         <v>4.3</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="18">
         <v>58.2</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="18">
         <v>196.8</v>
       </c>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="18">
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="19">
         <v>3.4</v>
       </c>
       <c r="P26" s="23">
         <v>0.1</v>
       </c>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="15" t="s">
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T26" s="15" t="s">
+      <c r="T26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U26" s="20"/>
+      <c r="U26" s="11"/>
       <c r="V26" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W26" s="16" t="s">
+      <c r="W26" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X26" s="24" t="s">
@@ -2379,59 +2373,59 @@
       <c r="AD26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="18">
         <v>20.0</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="19">
         <v>-100.57</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="20">
         <v>6.0</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="18">
         <v>356.6</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="18">
         <v>39.6</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="18">
         <v>52.3</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="18">
         <v>7.9</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="18">
         <v>86.0</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="18">
         <v>208.0</v>
       </c>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="18">
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="19">
         <v>4.5</v>
       </c>
       <c r="P27" s="23">
         <v>0.1</v>
       </c>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="15" t="s">
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T27" s="15" t="s">
+      <c r="T27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U27" s="20"/>
+      <c r="U27" s="11"/>
       <c r="V27" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W27" s="16" t="s">
+      <c r="W27" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X27" s="24" t="s">
@@ -2445,59 +2439,59 @@
       <c r="AD27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="18">
         <v>19.63</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="19">
         <v>-100.48</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="20">
         <v>8.0</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="18">
         <v>354.7</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="18">
         <v>22.9</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="18">
         <v>138.9</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="18">
         <v>4.2</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="18">
         <v>80.8</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="18">
         <v>113.8</v>
       </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="18">
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="19">
         <v>4.3</v>
       </c>
       <c r="P28" s="23">
         <v>0.4</v>
       </c>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="15" t="s">
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T28" s="15" t="s">
+      <c r="T28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U28" s="20"/>
+      <c r="U28" s="11"/>
       <c r="V28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="W28" s="16" t="s">
+      <c r="W28" s="17" t="s">
         <v>29</v>
       </c>
       <c r="X28" s="24" t="s">
@@ -2514,10 +2508,10 @@
       <c r="A29" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="20">
         <v>19.57</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="20">
         <v>-99.59</v>
       </c>
       <c r="D29" s="23">
@@ -2540,16 +2534,16 @@
       <c r="K29" s="27"/>
       <c r="L29" s="27"/>
       <c r="M29" s="28"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="15" t="s">
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U29" s="20"/>
+      <c r="U29" s="11"/>
       <c r="V29" s="29" t="s">
         <v>39</v>
       </c>
@@ -2568,10 +2562,10 @@
       <c r="A30" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="20">
         <v>19.56</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="20">
         <v>-99.58</v>
       </c>
       <c r="D30" s="23">
@@ -2594,22 +2588,22 @@
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
       <c r="M30" s="28"/>
-      <c r="N30" s="20"/>
+      <c r="N30" s="11"/>
       <c r="O30" s="26">
         <v>3.71</v>
       </c>
       <c r="P30" s="23">
         <v>0.4</v>
       </c>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="15" t="s">
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T30" s="15" t="s">
+      <c r="T30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U30" s="20"/>
+      <c r="U30" s="11"/>
       <c r="V30" s="29" t="s">
         <v>39</v>
       </c>
@@ -2619,7 +2613,7 @@
       <c r="X30" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="Y30" s="15"/>
+      <c r="Y30" s="16"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
@@ -2630,13 +2624,13 @@
       <c r="A31" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="20">
         <v>19.56</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="20">
         <v>-99.58</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="19">
         <v>10.0</v>
       </c>
       <c r="E31" s="26">
@@ -2658,14 +2652,14 @@
       <c r="M31" s="28"/>
       <c r="N31" s="31"/>
       <c r="O31" s="31"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
       <c r="S31" s="31"/>
-      <c r="T31" s="15" t="s">
+      <c r="T31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U31" s="20"/>
+      <c r="U31" s="11"/>
       <c r="V31" s="29" t="s">
         <v>39</v>
       </c>
@@ -2684,13 +2678,13 @@
       <c r="A32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="20">
         <v>19.56</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="20">
         <v>-99.56</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="19">
         <v>10.0</v>
       </c>
       <c r="E32" s="26">
@@ -2708,14 +2702,14 @@
       <c r="M32" s="28"/>
       <c r="N32" s="31"/>
       <c r="O32" s="31"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
       <c r="S32" s="31"/>
-      <c r="T32" s="15" t="s">
+      <c r="T32" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U32" s="20"/>
+      <c r="U32" s="11"/>
       <c r="V32" s="29" t="s">
         <v>39</v>
       </c>
@@ -2735,13 +2729,13 @@
       <c r="A33" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="20">
         <v>19.53</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="20">
         <v>-99.5</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="19">
         <v>9.0</v>
       </c>
       <c r="E33" s="26">
@@ -2763,14 +2757,14 @@
       <c r="M33" s="28"/>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
       <c r="S33" s="31"/>
-      <c r="T33" s="15" t="s">
+      <c r="T33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U33" s="20"/>
+      <c r="U33" s="11"/>
       <c r="V33" s="29" t="s">
         <v>39</v>
       </c>
@@ -2789,13 +2783,13 @@
       <c r="A34" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="20">
         <v>19.52</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="20">
         <v>-99.47</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="19">
         <v>10.0</v>
       </c>
       <c r="E34" s="26">
@@ -2822,15 +2816,15 @@
       <c r="P34" s="23">
         <v>0.4</v>
       </c>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="15" t="s">
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T34" s="15" t="s">
+      <c r="T34" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U34" s="20"/>
+      <c r="U34" s="11"/>
       <c r="V34" s="29" t="s">
         <v>39</v>
       </c>
@@ -2851,13 +2845,13 @@
       <c r="A35" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="20">
         <v>19.52</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="20">
         <v>-99.48</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="19">
         <v>10.0</v>
       </c>
       <c r="E35" s="26">
@@ -2879,14 +2873,14 @@
       <c r="M35" s="28"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
       <c r="S35" s="31"/>
-      <c r="T35" s="15" t="s">
+      <c r="T35" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U35" s="20"/>
+      <c r="U35" s="11"/>
       <c r="V35" s="29" t="s">
         <v>39</v>
       </c>
@@ -2905,13 +2899,13 @@
       <c r="A36" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="20">
         <v>19.52</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="20">
         <v>-99.48</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="19">
         <v>10.0</v>
       </c>
       <c r="E36" s="26">
@@ -2934,13 +2928,13 @@
       <c r="N36" s="31"/>
       <c r="O36" s="31"/>
       <c r="P36" s="31"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
       <c r="S36" s="31"/>
-      <c r="T36" s="15" t="s">
+      <c r="T36" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U36" s="20"/>
+      <c r="U36" s="11"/>
       <c r="V36" s="29" t="s">
         <v>39</v>
       </c>
@@ -2959,13 +2953,13 @@
       <c r="A37" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="20">
         <v>19.51</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="20">
         <v>-99.48</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="19">
         <v>7.0</v>
       </c>
       <c r="E37" s="26">
@@ -2988,13 +2982,13 @@
       <c r="N37" s="31"/>
       <c r="O37" s="31"/>
       <c r="P37" s="31"/>
-      <c r="Q37" s="20"/>
+      <c r="Q37" s="11"/>
       <c r="R37" s="31"/>
       <c r="S37" s="31"/>
-      <c r="T37" s="15" t="s">
+      <c r="T37" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U37" s="20"/>
+      <c r="U37" s="11"/>
       <c r="V37" s="29" t="s">
         <v>39</v>
       </c>
@@ -3013,13 +3007,13 @@
       <c r="A38" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="20">
         <v>19.5</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="20">
         <v>-99.48</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="19">
         <v>10.0</v>
       </c>
       <c r="E38" s="26">
@@ -3042,13 +3036,13 @@
       <c r="N38" s="31"/>
       <c r="O38" s="31"/>
       <c r="P38" s="31"/>
-      <c r="Q38" s="20"/>
+      <c r="Q38" s="11"/>
       <c r="R38" s="31"/>
       <c r="S38" s="31"/>
-      <c r="T38" s="15" t="s">
+      <c r="T38" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U38" s="20"/>
+      <c r="U38" s="11"/>
       <c r="V38" s="29" t="s">
         <v>39</v>
       </c>
@@ -3067,13 +3061,13 @@
       <c r="A39" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="20">
         <v>19.52</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="20">
         <v>-99.44</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="19">
         <v>10.0</v>
       </c>
       <c r="E39" s="26">
@@ -3099,10 +3093,10 @@
       <c r="Q39" s="31"/>
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
-      <c r="T39" s="15" t="s">
+      <c r="T39" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U39" s="20"/>
+      <c r="U39" s="11"/>
       <c r="V39" s="29" t="s">
         <v>39</v>
       </c>
@@ -3121,13 +3115,13 @@
       <c r="A40" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="20">
         <v>19.49</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="20">
         <v>-99.48</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="19">
         <v>10.0</v>
       </c>
       <c r="E40" s="26">
@@ -3153,10 +3147,10 @@
       <c r="Q40" s="31"/>
       <c r="R40" s="31"/>
       <c r="S40" s="31"/>
-      <c r="T40" s="15" t="s">
+      <c r="T40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U40" s="20"/>
+      <c r="U40" s="11"/>
       <c r="V40" s="29" t="s">
         <v>39</v>
       </c>
@@ -3175,13 +3169,13 @@
       <c r="A41" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="20">
         <v>19.47</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="20">
         <v>-99.48</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="19">
         <v>9.0</v>
       </c>
       <c r="E41" s="26">
@@ -3207,10 +3201,10 @@
       <c r="Q41" s="31"/>
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
-      <c r="T41" s="15" t="s">
+      <c r="T41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U41" s="20"/>
+      <c r="U41" s="11"/>
       <c r="V41" s="29" t="s">
         <v>39</v>
       </c>
@@ -3229,13 +3223,13 @@
       <c r="A42" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="20">
         <v>19.47</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="20">
         <v>-99.48</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="19">
         <v>10.0</v>
       </c>
       <c r="E42" s="26">
@@ -3264,13 +3258,13 @@
       </c>
       <c r="Q42" s="31"/>
       <c r="R42" s="31"/>
-      <c r="S42" s="15" t="s">
+      <c r="S42" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T42" s="15" t="s">
+      <c r="T42" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U42" s="20"/>
+      <c r="U42" s="11"/>
       <c r="V42" s="29" t="s">
         <v>39</v>
       </c>
@@ -3291,13 +3285,13 @@
       <c r="A43" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="20">
         <v>19.49</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="20">
         <v>-99.37</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="19">
         <v>10.0</v>
       </c>
       <c r="E43" s="26">
@@ -3323,10 +3317,10 @@
       <c r="Q43" s="31"/>
       <c r="R43" s="31"/>
       <c r="S43" s="31"/>
-      <c r="T43" s="15" t="s">
+      <c r="T43" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U43" s="20"/>
+      <c r="U43" s="11"/>
       <c r="V43" s="29" t="s">
         <v>39</v>
       </c>
@@ -3345,13 +3339,13 @@
       <c r="A44" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="20">
         <v>19.44</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="20">
         <v>-99.32</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="19">
         <v>10.0</v>
       </c>
       <c r="E44" s="26">
@@ -3380,13 +3374,13 @@
       </c>
       <c r="Q44" s="31"/>
       <c r="R44" s="31"/>
-      <c r="S44" s="15" t="s">
+      <c r="S44" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T44" s="15" t="s">
+      <c r="T44" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U44" s="20"/>
+      <c r="U44" s="11"/>
       <c r="V44" s="29" t="s">
         <v>39</v>
       </c>
@@ -3407,13 +3401,13 @@
       <c r="A45" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="20">
         <v>19.43</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="20">
         <v>-99.34</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="19">
         <v>10.0</v>
       </c>
       <c r="E45" s="26">
@@ -3439,10 +3433,10 @@
       <c r="Q45" s="31"/>
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
-      <c r="T45" s="15" t="s">
+      <c r="T45" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U45" s="20"/>
+      <c r="U45" s="11"/>
       <c r="V45" s="29" t="s">
         <v>39</v>
       </c>
@@ -3461,13 +3455,13 @@
       <c r="A46" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="20">
         <v>19.44</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="20">
         <v>-99.36</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="19">
         <v>10.0</v>
       </c>
       <c r="E46" s="26">
@@ -3493,10 +3487,10 @@
       <c r="Q46" s="31"/>
       <c r="R46" s="31"/>
       <c r="S46" s="31"/>
-      <c r="T46" s="15" t="s">
+      <c r="T46" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U46" s="20"/>
+      <c r="U46" s="11"/>
       <c r="V46" s="29" t="s">
         <v>39</v>
       </c>
@@ -3515,13 +3509,13 @@
       <c r="A47" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="20">
         <v>19.42</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="20">
         <v>-99.36</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="19">
         <v>10.0</v>
       </c>
       <c r="E47" s="26">
@@ -3547,10 +3541,10 @@
       <c r="Q47" s="31"/>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
-      <c r="T47" s="15" t="s">
+      <c r="T47" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U47" s="20"/>
+      <c r="U47" s="11"/>
       <c r="V47" s="29" t="s">
         <v>39</v>
       </c>
@@ -3569,13 +3563,13 @@
       <c r="A48" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="20">
         <v>19.42</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="20">
         <v>-99.43</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="19">
         <v>10.0</v>
       </c>
       <c r="E48" s="26">
@@ -3601,10 +3595,10 @@
       <c r="Q48" s="31"/>
       <c r="R48" s="31"/>
       <c r="S48" s="31"/>
-      <c r="T48" s="15" t="s">
+      <c r="T48" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U48" s="20"/>
+      <c r="U48" s="11"/>
       <c r="V48" s="29" t="s">
         <v>39</v>
       </c>
@@ -3623,10 +3617,10 @@
       <c r="A49" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="20">
         <v>19.76</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="20">
         <v>-96.42</v>
       </c>
       <c r="D49" s="26">
@@ -3653,32 +3647,28 @@
       <c r="O49" s="26">
         <v>3.1</v>
       </c>
-      <c r="P49" s="35">
+      <c r="P49" s="26">
         <v>0.1</v>
       </c>
-      <c r="Q49" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="R49" s="18">
-        <v>3.2</v>
-      </c>
-      <c r="S49" s="15" t="s">
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T49" s="15" t="s">
+      <c r="T49" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U49" s="20"/>
+      <c r="U49" s="11"/>
       <c r="V49" s="29" t="s">
         <v>39</v>
       </c>
       <c r="W49" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="X49" s="15" t="s">
+      <c r="X49" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="Y49" s="15" t="s">
+      <c r="Y49" s="16" t="s">
         <v>101</v>
       </c>
       <c r="Z49" s="2"/>
@@ -3691,10 +3681,10 @@
       <c r="A50" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="20">
         <v>20.7</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="20">
         <v>-98.52</v>
       </c>
       <c r="D50" s="26">
@@ -3721,34 +3711,28 @@
       <c r="O50" s="26">
         <v>5.15</v>
       </c>
-      <c r="P50" s="35">
+      <c r="P50" s="26">
         <v>0.25</v>
       </c>
-      <c r="Q50" s="19">
-        <f>5.15-0.25</f>
-        <v>4.9</v>
-      </c>
-      <c r="R50" s="19">
-        <f>5.15+0.25</f>
-        <v>5.4</v>
-      </c>
-      <c r="S50" s="15" t="s">
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T50" s="15" t="s">
+      <c r="T50" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U50" s="20"/>
+      <c r="U50" s="11"/>
       <c r="V50" s="29" t="s">
         <v>39</v>
       </c>
       <c r="W50" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="X50" s="15" t="s">
+      <c r="X50" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="Y50" s="15" t="s">
+      <c r="Y50" s="16" t="s">
         <v>101</v>
       </c>
       <c r="Z50" s="2"/>
@@ -3761,10 +3745,10 @@
       <c r="A51" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="20">
         <v>20.66</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="20">
         <v>-98.62</v>
       </c>
       <c r="D51" s="26">
@@ -3791,32 +3775,28 @@
       <c r="O51" s="26">
         <v>4.4</v>
       </c>
-      <c r="P51" s="35">
+      <c r="P51" s="26">
         <v>0.1</v>
       </c>
-      <c r="Q51" s="23">
-        <v>4.3</v>
-      </c>
-      <c r="R51" s="18">
-        <v>4.5</v>
-      </c>
-      <c r="S51" s="15" t="s">
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T51" s="15" t="s">
+      <c r="T51" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U51" s="20"/>
+      <c r="U51" s="11"/>
       <c r="V51" s="29" t="s">
         <v>39</v>
       </c>
       <c r="W51" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="X51" s="15" t="s">
+      <c r="X51" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="Y51" s="15" t="s">
+      <c r="Y51" s="16" t="s">
         <v>101</v>
       </c>
       <c r="Z51" s="2"/>
@@ -3829,10 +3809,10 @@
       <c r="A52" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="20">
         <v>19.86</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="20">
         <v>-98.82</v>
       </c>
       <c r="D52" s="26">
@@ -3854,37 +3834,33 @@
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="33"/>
-      <c r="M52" s="36"/>
+      <c r="M52" s="35"/>
       <c r="N52" s="31"/>
       <c r="O52" s="26">
         <v>4.2</v>
       </c>
-      <c r="P52" s="35">
+      <c r="P52" s="26">
         <v>0.1</v>
       </c>
-      <c r="Q52" s="23">
-        <v>4.1</v>
-      </c>
-      <c r="R52" s="18">
-        <v>4.3</v>
-      </c>
-      <c r="S52" s="15" t="s">
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T52" s="15" t="s">
+      <c r="T52" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U52" s="20"/>
+      <c r="U52" s="11"/>
       <c r="V52" s="29" t="s">
         <v>39</v>
       </c>
       <c r="W52" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="X52" s="15" t="s">
+      <c r="X52" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="Y52" s="15" t="s">
+      <c r="Y52" s="16" t="s">
         <v>101</v>
       </c>
       <c r="Z52" s="2"/>
@@ -3897,10 +3873,10 @@
       <c r="A53" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="20">
         <v>20.66</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="20">
         <v>-98.55</v>
       </c>
       <c r="D53" s="26">
@@ -3924,31 +3900,28 @@
       <c r="L53" s="33"/>
       <c r="M53" s="34"/>
       <c r="N53" s="31"/>
-      <c r="O53" s="26">
-        <f t="shared" ref="O53:O55" si="1">sum(Q53:R53)/2</f>
-        <v>3.55</v>
-      </c>
+      <c r="O53" s="31"/>
       <c r="P53" s="31"/>
       <c r="Q53" s="23">
         <v>2.6</v>
       </c>
-      <c r="R53" s="18">
+      <c r="R53" s="19">
         <v>4.5</v>
       </c>
-      <c r="S53" s="15" t="s">
+      <c r="S53" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="T53" s="15" t="s">
+      <c r="T53" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U53" s="20"/>
+      <c r="U53" s="11"/>
       <c r="V53" s="29" t="s">
         <v>39</v>
       </c>
       <c r="W53" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="X53" s="15" t="s">
+      <c r="X53" s="16" t="s">
         <v>106</v>
       </c>
       <c r="Y53" s="2"/>
@@ -3962,10 +3935,10 @@
       <c r="A54" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="20">
         <v>20.58</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="20">
         <v>-98.69</v>
       </c>
       <c r="D54" s="26">
@@ -3987,33 +3960,30 @@
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="33"/>
-      <c r="M54" s="36"/>
+      <c r="M54" s="35"/>
       <c r="N54" s="31"/>
-      <c r="O54" s="26">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
+      <c r="O54" s="31"/>
       <c r="P54" s="31"/>
       <c r="Q54" s="23">
         <v>2.0</v>
       </c>
-      <c r="R54" s="18">
+      <c r="R54" s="19">
         <v>3.0</v>
       </c>
-      <c r="S54" s="15" t="s">
+      <c r="S54" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="T54" s="15" t="s">
+      <c r="T54" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U54" s="20"/>
+      <c r="U54" s="11"/>
       <c r="V54" s="29" t="s">
         <v>39</v>
       </c>
       <c r="W54" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="X54" s="15" t="s">
+      <c r="X54" s="16" t="s">
         <v>106</v>
       </c>
       <c r="Y54" s="2"/>
@@ -4027,10 +3997,10 @@
       <c r="A55" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="20">
         <v>20.56</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="20">
         <v>-98.65</v>
       </c>
       <c r="D55" s="26">
@@ -4053,11 +4023,8 @@
       <c r="K55" s="33"/>
       <c r="L55" s="33"/>
       <c r="M55" s="34"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="26">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
+      <c r="N55" s="11"/>
+      <c r="O55" s="31"/>
       <c r="P55" s="31"/>
       <c r="Q55" s="23">
         <v>2.0</v>
@@ -4065,20 +4032,20 @@
       <c r="R55" s="23">
         <v>3.0</v>
       </c>
-      <c r="S55" s="15" t="s">
+      <c r="S55" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="T55" s="15" t="s">
+      <c r="T55" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U55" s="20"/>
+      <c r="U55" s="11"/>
       <c r="V55" s="29" t="s">
         <v>39</v>
       </c>
       <c r="W55" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="X55" s="15" t="s">
+      <c r="X55" s="16" t="s">
         <v>106</v>
       </c>
       <c r="Y55" s="2"/>
@@ -4092,10 +4059,10 @@
       <c r="A56" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="20">
         <v>20.46</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="20">
         <v>-98.67</v>
       </c>
       <c r="D56" s="26">
@@ -4118,36 +4085,32 @@
       <c r="K56" s="33"/>
       <c r="L56" s="33"/>
       <c r="M56" s="34"/>
-      <c r="N56" s="20"/>
+      <c r="N56" s="11"/>
       <c r="O56" s="26">
         <v>2.56</v>
       </c>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="19">
-        <f>2.56-0.08</f>
-        <v>2.48</v>
-      </c>
-      <c r="R56" s="19">
-        <f>2.56+0.08</f>
-        <v>2.64</v>
-      </c>
-      <c r="S56" s="15" t="s">
+      <c r="P56" s="26">
+        <v>0.08</v>
+      </c>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T56" s="15" t="s">
+      <c r="T56" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U56" s="20"/>
+      <c r="U56" s="11"/>
       <c r="V56" s="29" t="s">
         <v>39</v>
       </c>
       <c r="W56" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="X56" s="15" t="s">
+      <c r="X56" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="Y56" s="15" t="s">
+      <c r="Y56" s="16" t="s">
         <v>101</v>
       </c>
       <c r="Z56" s="2"/>
@@ -4160,10 +4123,10 @@
       <c r="A57" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="20">
         <v>20.35</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="20">
         <v>-98.65</v>
       </c>
       <c r="D57" s="26">
@@ -4186,36 +4149,32 @@
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
       <c r="M57" s="34"/>
-      <c r="N57" s="20"/>
+      <c r="N57" s="11"/>
       <c r="O57" s="26">
         <v>2.38</v>
       </c>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="19">
-        <f>2.38-0.08</f>
-        <v>2.3</v>
-      </c>
-      <c r="R57" s="19">
-        <f>2.38+0.08</f>
-        <v>2.46</v>
-      </c>
-      <c r="S57" s="15" t="s">
+      <c r="P57" s="26">
+        <v>0.08</v>
+      </c>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T57" s="15" t="s">
+      <c r="T57" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="U57" s="20"/>
+      <c r="U57" s="11"/>
       <c r="V57" s="29" t="s">
         <v>39</v>
       </c>
       <c r="W57" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="X57" s="15" t="s">
+      <c r="X57" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="Y57" s="15" t="s">
+      <c r="Y57" s="16" t="s">
         <v>101</v>
       </c>
       <c r="Z57" s="2"/>
@@ -4229,12 +4188,12 @@
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
-      <c r="E58" s="37"/>
+      <c r="E58" s="36"/>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="18"/>
+      <c r="J58" s="19"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -4246,7 +4205,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
-      <c r="V58" s="15"/>
+      <c r="V58" s="16"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
@@ -4261,12 +4220,12 @@
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
-      <c r="E59" s="37"/>
+      <c r="E59" s="36"/>
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="18"/>
+      <c r="J59" s="19"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -4293,12 +4252,12 @@
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
-      <c r="E60" s="37"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="25"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="18"/>
+      <c r="J60" s="19"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -4321,16 +4280,16 @@
       <c r="AD60" s="2"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="18"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="19"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -4357,12 +4316,12 @@
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
-      <c r="E62" s="37"/>
+      <c r="E62" s="36"/>
       <c r="F62" s="25"/>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="18"/>
+      <c r="J62" s="19"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -4389,12 +4348,12 @@
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
-      <c r="E63" s="37"/>
+      <c r="E63" s="36"/>
       <c r="F63" s="25"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="18"/>
+      <c r="J63" s="19"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4421,12 +4380,12 @@
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
-      <c r="E64" s="37"/>
+      <c r="E64" s="36"/>
       <c r="F64" s="25"/>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="18"/>
+      <c r="J64" s="19"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4453,12 +4412,12 @@
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
-      <c r="E65" s="37"/>
+      <c r="E65" s="36"/>
       <c r="F65" s="25"/>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="18"/>
+      <c r="J65" s="19"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -4485,12 +4444,12 @@
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
-      <c r="E66" s="37"/>
+      <c r="E66" s="36"/>
       <c r="F66" s="25"/>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
-      <c r="J66" s="18"/>
+      <c r="J66" s="19"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -4517,12 +4476,12 @@
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
-      <c r="E67" s="37"/>
+      <c r="E67" s="36"/>
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="18"/>
+      <c r="J67" s="19"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -4549,12 +4508,12 @@
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
-      <c r="E68" s="37"/>
+      <c r="E68" s="36"/>
       <c r="F68" s="25"/>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
-      <c r="J68" s="18"/>
+      <c r="J68" s="19"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -4581,12 +4540,12 @@
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
-      <c r="E69" s="37"/>
+      <c r="E69" s="36"/>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
-      <c r="J69" s="18"/>
+      <c r="J69" s="19"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -4613,12 +4572,12 @@
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
-      <c r="E70" s="37"/>
+      <c r="E70" s="36"/>
       <c r="F70" s="25"/>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
-      <c r="J70" s="18"/>
+      <c r="J70" s="19"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -4645,12 +4604,12 @@
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
-      <c r="E71" s="37"/>
+      <c r="E71" s="36"/>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
-      <c r="J71" s="18"/>
+      <c r="J71" s="19"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -4677,12 +4636,12 @@
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
-      <c r="E72" s="37"/>
+      <c r="E72" s="36"/>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="18"/>
+      <c r="J72" s="19"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -4709,12 +4668,12 @@
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
-      <c r="E73" s="37"/>
+      <c r="E73" s="36"/>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
-      <c r="J73" s="18"/>
+      <c r="J73" s="19"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -4741,12 +4700,12 @@
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
-      <c r="E74" s="37"/>
+      <c r="E74" s="36"/>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
-      <c r="J74" s="18"/>
+      <c r="J74" s="19"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -4778,7 +4737,7 @@
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
-      <c r="J75" s="18"/>
+      <c r="J75" s="19"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -4805,12 +4764,12 @@
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
-      <c r="E76" s="37"/>
+      <c r="E76" s="36"/>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
-      <c r="J76" s="18"/>
+      <c r="J76" s="19"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -4842,7 +4801,7 @@
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
-      <c r="J77" s="18"/>
+      <c r="J77" s="19"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -4869,12 +4828,12 @@
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
-      <c r="E78" s="37"/>
+      <c r="E78" s="36"/>
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
-      <c r="J78" s="18"/>
+      <c r="J78" s="19"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -4901,12 +4860,12 @@
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
-      <c r="E79" s="37"/>
+      <c r="E79" s="36"/>
       <c r="F79" s="25"/>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
-      <c r="J79" s="18"/>
+      <c r="J79" s="19"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -4933,12 +4892,12 @@
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
-      <c r="E80" s="37"/>
+      <c r="E80" s="36"/>
       <c r="F80" s="25"/>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
-      <c r="J80" s="18"/>
+      <c r="J80" s="19"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
